--- a/src/main/resources/templates/BIData.xlsx
+++ b/src/main/resources/templates/BIData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A22A5E4-F324-4E2F-8EFF-591E4BC1A6C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sku总表" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>SKU编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,58 +48,158 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>供1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GY002</t>
+  </si>
+  <si>
+    <t>供2</t>
+  </si>
+  <si>
+    <t>GY003</t>
+  </si>
+  <si>
+    <t>供3</t>
+  </si>
+  <si>
+    <t>成本价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试商品11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GY004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试商品21</t>
+  </si>
+  <si>
+    <t>测试商品22</t>
+  </si>
+  <si>
+    <t>测试商品23</t>
+  </si>
+  <si>
+    <t>测试商品24</t>
+  </si>
+  <si>
+    <t>测试商品1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试商品2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试商品3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试商品4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试商品5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试商品12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试商品13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试商品14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试商品15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GY005</t>
+  </si>
+  <si>
+    <t>GY006</t>
+  </si>
+  <si>
+    <t>GY007</t>
+  </si>
+  <si>
+    <t>GY008</t>
+  </si>
+  <si>
+    <t>GY009</t>
+  </si>
+  <si>
+    <t>GY010</t>
+  </si>
+  <si>
+    <t>GY011</t>
+  </si>
+  <si>
+    <t>GY012</t>
+  </si>
+  <si>
+    <t>GY013</t>
+  </si>
+  <si>
+    <t>GY014</t>
+  </si>
+  <si>
+    <t>供5</t>
+  </si>
+  <si>
+    <t>供6</t>
+  </si>
+  <si>
+    <t>供7</t>
+  </si>
+  <si>
+    <t>供8</t>
+  </si>
+  <si>
+    <t>供9</t>
+  </si>
+  <si>
+    <t>供10</t>
+  </si>
+  <si>
+    <t>供11</t>
+  </si>
+  <si>
+    <t>供12</t>
+  </si>
+  <si>
+    <t>供13</t>
+  </si>
+  <si>
+    <t>供14</t>
+  </si>
+  <si>
     <t>GY001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>供1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GY002</t>
-  </si>
-  <si>
-    <t>供2</t>
-  </si>
-  <si>
-    <t>GY003</t>
-  </si>
-  <si>
-    <t>供3</t>
-  </si>
-  <si>
-    <t>成本价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试商品11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试商品21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试商品31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试商品8888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GY004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -420,21 +521,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="19.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -442,37 +543,120 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
+        <v>201907020001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>201907020002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>201907020003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>201907020004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>201907020005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>201907020011</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>201907020012</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>201907020013</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>201907020014</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>201907020015</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>201907020021</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>201907020014</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>201907020022</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>201907020023</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>201907020024</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -481,21 +665,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="13.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,60 +693,178 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>201907020011</v>
-      </c>
-      <c r="B2" t="s">
+        <v>201907020001</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
+        <v>201907020002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>201907020003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>201907020004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>201907020005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>201907020011</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>201907020012</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>201907020013</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>201907020014</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>201907020015</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>201907020021</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>201907020022</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>201907020023</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>201907020024</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>201907020025</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -572,56 +874,141 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>201907020011</v>
+        <v>201907020001</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
+        <v>201907020002</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>201907020003</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>201907020004</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>201907020005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>201907020011</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>201907020012</v>
       </c>
-      <c r="B3">
+      <c r="B8">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>201907020013</v>
       </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>201907020014</v>
       </c>
-      <c r="B5">
-        <v>80</v>
+      <c r="B10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>201907020015</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>201907020021</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>201907020022</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>201907020023</v>
+      </c>
+      <c r="B14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>201907020024</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>201907020025</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
